--- a/data/trans_dic/P17_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2436521910762473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09952539528680791</v>
+        <v>0.09952539528680793</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3663799852093815</v>
@@ -685,7 +685,7 @@
         <v>0.2518113974220019</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1479054955200716</v>
+        <v>0.1479054955200715</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2741737880803161</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1428930229669708</v>
+        <v>0.1441362364928272</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2197080193218197</v>
+        <v>0.2170483371316545</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1917990173680311</v>
+        <v>0.196621495126867</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07119980124837302</v>
+        <v>0.07310225484248255</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3089863136762687</v>
+        <v>0.3069573915415695</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3193124545682728</v>
+        <v>0.3150273802649789</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2015808344702753</v>
+        <v>0.2048187803454161</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1193660796363158</v>
+        <v>0.1143251095041902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2353657756877421</v>
+        <v>0.238155542867427</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2861428559323092</v>
+        <v>0.2850163966946139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2105676357156329</v>
+        <v>0.209657165204646</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1010744944172606</v>
+        <v>0.1026923320375088</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2333876438749965</v>
+        <v>0.2327976983728487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3197228047327859</v>
+        <v>0.3235990334463001</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2988340490944331</v>
+        <v>0.2994812774545592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.13450567561872</v>
+        <v>0.1342635344908263</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4223443924037786</v>
+        <v>0.4310918290368231</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4383147340110453</v>
+        <v>0.439269631579599</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3000319270452055</v>
+        <v>0.3070479112001341</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1835971592291795</v>
+        <v>0.1800642675085579</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.316699364574018</v>
+        <v>0.316210186456835</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3637948680426706</v>
+        <v>0.3644271591752407</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.285158745834992</v>
+        <v>0.2857066493996724</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1482534641137368</v>
+        <v>0.1480660503523753</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3094042347774711</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3232003640083958</v>
+        <v>0.3232003640083959</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3680252427522812</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2690435795326202</v>
+        <v>0.266091834796585</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.220102256076944</v>
+        <v>0.2179752973864432</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2552140219037672</v>
+        <v>0.2518612310102766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1845142091943381</v>
+        <v>0.1836915100727012</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3841332838368957</v>
+        <v>0.3845852901818888</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2563332032832596</v>
+        <v>0.2587604274665197</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.271393141569599</v>
+        <v>0.2674585272618432</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2904156597369515</v>
+        <v>0.2881907166637082</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3354897017460894</v>
+        <v>0.3366663735843443</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2486394276119734</v>
+        <v>0.2505166107516725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.271520769167691</v>
+        <v>0.2723745770643475</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2447758532338664</v>
+        <v>0.2472608917577016</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3477016977475768</v>
+        <v>0.3524045069316858</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3012871469928568</v>
+        <v>0.2967988027147656</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3336847325791989</v>
+        <v>0.3339496272563488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2687960476993554</v>
+        <v>0.2722622025816236</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4714975845069926</v>
+        <v>0.4741756612725372</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3370189795516786</v>
+        <v>0.3429782506443002</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3536579687333176</v>
+        <v>0.350798377372996</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3599165898699623</v>
+        <v>0.3604182844042869</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4017206722892565</v>
+        <v>0.3963283833569148</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3036165357294612</v>
+        <v>0.3076338166349966</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3322893852649114</v>
+        <v>0.3303104708391377</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3033560580239215</v>
+        <v>0.3039363530861441</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1297749466742672</v>
+        <v>0.1307346013754797</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1354175721997722</v>
+        <v>0.1350079873069083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0697201615697345</v>
+        <v>0.0686569782944598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0983430729303493</v>
+        <v>0.09576874893596558</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1674382946318043</v>
+        <v>0.1646252719632391</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2332078537739693</v>
+        <v>0.2354253066385789</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1613030547614449</v>
+        <v>0.1645276971159667</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1777954545809292</v>
+        <v>0.1769383364325049</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1609523108459307</v>
+        <v>0.1587259477074974</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1997217670824293</v>
+        <v>0.1965240031974854</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1255114193752608</v>
+        <v>0.128346165152716</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.145758870550134</v>
+        <v>0.1463335435920816</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2167578709953785</v>
+        <v>0.2172605719876854</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2239701276535232</v>
+        <v>0.2172098191549711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1377134765371837</v>
+        <v>0.1337196334156976</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1714006218464829</v>
+        <v>0.167533785507804</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2538308809047234</v>
+        <v>0.2508402821955721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.338993896682835</v>
+        <v>0.3361250104345968</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2482066003450601</v>
+        <v>0.2505753414234707</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.252089280515376</v>
+        <v>0.2471871980649411</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.220555770855061</v>
+        <v>0.2190618903282997</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2657003399973908</v>
+        <v>0.2651935764400716</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1794423847367163</v>
+        <v>0.1815122701788742</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1974315770635471</v>
+        <v>0.1957429883477543</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2691592446390626</v>
+        <v>0.2711592951030769</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4313312111852738</v>
+        <v>0.4357718190833333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4567053647102071</v>
+        <v>0.455196541609849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2075253822817516</v>
+        <v>0.2058219064165633</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2876246117158198</v>
+        <v>0.2895659378667749</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4975570796199061</v>
+        <v>0.4897636787292315</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.559679643013611</v>
+        <v>0.5573666351272746</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2384581516387526</v>
+        <v>0.2346633577864394</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.294087124331574</v>
+        <v>0.2924242040373974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4815389751724711</v>
+        <v>0.4783679884668542</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5255993155665682</v>
+        <v>0.525158480238758</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2394281082937175</v>
+        <v>0.2373947099714399</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3644081785072912</v>
+        <v>0.3632104469070308</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5405583286523207</v>
+        <v>0.5424951735086537</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5610319627198117</v>
+        <v>0.5604094870661136</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3332258209025102</v>
+        <v>0.3377511194126612</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3846267247402469</v>
+        <v>0.3810369854494516</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5964398593448608</v>
+        <v>0.5983071310336963</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6617933973513421</v>
+        <v>0.6641585805049307</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.329784112746307</v>
+        <v>0.322822525777931</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3634452657730503</v>
+        <v>0.3604884758482828</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5591000894970299</v>
+        <v>0.5549525094997732</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5996292131280464</v>
+        <v>0.6028478898243872</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.314951633000764</v>
+        <v>0.3135699925802833</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01480618100541873</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06546039016036834</v>
+        <v>0.06546039016036832</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2606160750657463</v>
@@ -1241,7 +1241,7 @@
         <v>0.00957324033138875</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06413905704520251</v>
+        <v>0.06413905704520252</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1801585396083387</v>
+        <v>0.17902392059075</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1321806198972028</v>
+        <v>0.1306879436325772</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03952230788005883</v>
+        <v>0.03756642190132541</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2298931223929105</v>
+        <v>0.2218270822415277</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1616842635323686</v>
+        <v>0.1608144039912285</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.003985301808275371</v>
+        <v>0.00390571659347541</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04404088684421543</v>
+        <v>0.04632992050522285</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2195485724805173</v>
+        <v>0.2184129029515435</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.164799019616064</v>
+        <v>0.1581396280940346</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.002090148777410538</v>
+        <v>0.002084431680153981</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04676814898173087</v>
+        <v>0.04892116697639028</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3047484140262054</v>
+        <v>0.2981576005251528</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2454542373991699</v>
+        <v>0.2414124111612098</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02369841433328606</v>
+        <v>0.01892414318336849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09897842160515027</v>
+        <v>0.09808924051044629</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3550191938857277</v>
+        <v>0.3513271259205561</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2716718298280024</v>
+        <v>0.2695542526184879</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04226528638135821</v>
+        <v>0.0431486700508581</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.08944165599847871</v>
+        <v>0.09505177667481497</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3072728979443298</v>
+        <v>0.3092622995967948</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2427236776055314</v>
+        <v>0.237190617186992</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02439673421224072</v>
+        <v>0.02422646126815586</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08482230363265865</v>
+        <v>0.08720660572317361</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.02787641131485337</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.0264434832128551</v>
+        <v>0.02644348321285511</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2209526128699794</v>
@@ -1365,7 +1365,7 @@
         <v>0.1340403095358387</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05007971040615565</v>
+        <v>0.05007971040615564</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.199802878498474</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1372300446961617</v>
+        <v>0.135817499198619</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1638271666461357</v>
+        <v>0.1642022493191514</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01110367868418583</v>
+        <v>0.01116043459223971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01136854404333457</v>
+        <v>0.0129872787657416</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1657557081293214</v>
+        <v>0.1775567085936403</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.283229178542169</v>
+        <v>0.2780868347104076</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09904129715900938</v>
+        <v>0.09640701911504916</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02913861276300993</v>
+        <v>0.0305703290072761</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1663749351419584</v>
+        <v>0.1666494229438863</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2356543255700416</v>
+        <v>0.2374436069340639</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06000947610306872</v>
+        <v>0.06081334221654115</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02581554406597758</v>
+        <v>0.02557027118742554</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2330014112284649</v>
+        <v>0.2296634823550571</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2654013455309533</v>
+        <v>0.2649591271206077</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05661201297777559</v>
+        <v>0.05719232592390913</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04688110525359921</v>
+        <v>0.0477193842465999</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2695725887045619</v>
+        <v>0.2680772104701581</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4002953492611536</v>
+        <v>0.3899374934993486</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1874790566611065</v>
+        <v>0.1805243867299559</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07839606707205024</v>
+        <v>0.08065200452771043</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2343149139352377</v>
+        <v>0.2340101526014755</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3118021769606169</v>
+        <v>0.3091574573333811</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1076828857137987</v>
+        <v>0.1067379973980814</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05477685075784551</v>
+        <v>0.05428801494204073</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2074643057923956</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3188937249567976</v>
+        <v>0.3188937249567977</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1190825984808706</v>
+        <v>0.1200249498729723</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1636946358586276</v>
+        <v>0.1679338927841994</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1513845650944654</v>
+        <v>0.1552455798140877</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2406423943252645</v>
+        <v>0.2406179145823172</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1459459691622596</v>
+        <v>0.1460950640824474</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.241340007397951</v>
+        <v>0.246298154779656</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1960785526340966</v>
+        <v>0.1954755302132025</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3249209545160566</v>
+        <v>0.3264521768270988</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1418167396639557</v>
+        <v>0.1405570231185123</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2161379204689</v>
+        <v>0.2152154739304729</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1847814888080807</v>
+        <v>0.1864412575263037</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2941295125714818</v>
+        <v>0.2943922954844366</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1783740170516987</v>
+        <v>0.1773676034753411</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2317858964260922</v>
+        <v>0.2315190860812129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.217880409175186</v>
+        <v>0.2189725498554078</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3161123022308273</v>
+        <v>0.3181490019873537</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2095741999672645</v>
+        <v>0.2074082111019917</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3117860801292247</v>
+        <v>0.3191162204958704</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2633647384194338</v>
+        <v>0.2619361891135217</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3924935400404017</v>
+        <v>0.3916072025962064</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1854319543262785</v>
+        <v>0.1824561274814174</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2664213840990043</v>
+        <v>0.2634466559653973</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2291537620714331</v>
+        <v>0.2332247026662122</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3410113952396335</v>
+        <v>0.3443777335055387</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.07782265576231076</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02905559487967925</v>
+        <v>0.02905559487967924</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2504842408324824</v>
+        <v>0.2498900028974196</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2199195574596045</v>
+        <v>0.2201764052865449</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04856110941784741</v>
+        <v>0.04830573552983952</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01143023742977871</v>
+        <v>0.01110787964616379</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3553081173901408</v>
+        <v>0.3565599101063908</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.289847473070985</v>
+        <v>0.2880875504074297</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07325404395912979</v>
+        <v>0.07278233763932666</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02756640931028076</v>
+        <v>0.02654363303115934</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3142847529287504</v>
+        <v>0.312757225557824</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2620287020902065</v>
+        <v>0.2636327716430073</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0652916886714051</v>
+        <v>0.06605087543757265</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02223916520954184</v>
+        <v>0.0224082278622683</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3162804183661079</v>
+        <v>0.3161724578177775</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2842664677485074</v>
+        <v>0.285293794397256</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08505086311230332</v>
+        <v>0.08445455794409569</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03149762021048704</v>
+        <v>0.03289647981915104</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4231946812580127</v>
+        <v>0.4265318670291255</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3569353436793364</v>
+        <v>0.3545487072256842</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1160038261878856</v>
+        <v>0.1149927295196476</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05065401295280647</v>
+        <v>0.05160121028921801</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3643898827339178</v>
+        <v>0.3630098836793833</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3095072901157679</v>
+        <v>0.3106340515645171</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09237465614608935</v>
+        <v>0.09269682566435465</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03755134716226832</v>
+        <v>0.03717376494249531</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2370380297271263</v>
+        <v>0.2392399992358359</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1687439895410556</v>
+        <v>0.1684329343424488</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1342447024746851</v>
+        <v>0.1332550997976604</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.3143281217290033</v>
+        <v>0.3146055158208376</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2157015252801542</v>
+        <v>0.217082083715074</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1892294598408788</v>
+        <v>0.1886639660748994</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2815326896685631</v>
+        <v>0.2815125768653552</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1968977150083683</v>
+        <v>0.1967861642297065</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1668896754331169</v>
+        <v>0.1670549882563795</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2689511661539403</v>
+        <v>0.2687936642030714</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1965631498631145</v>
+        <v>0.1957649811592314</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1626605165857238</v>
+        <v>0.1615861505323511</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3464724725503265</v>
+        <v>0.3473887387000231</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2441419355532367</v>
+        <v>0.2448701180884446</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.213182609297781</v>
+        <v>0.2126647755040108</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3030359294919824</v>
+        <v>0.3036487208804837</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.2161339542775668</v>
+        <v>0.2161133260893609</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1846186326104662</v>
+        <v>0.1850787027935939</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>38769</v>
+        <v>39106</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>64756</v>
+        <v>63972</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>56140</v>
+        <v>57551</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22702</v>
+        <v>23308</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>80595</v>
+        <v>80066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>91721</v>
+        <v>90490</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>57735</v>
+        <v>58662</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37727</v>
+        <v>36134</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>125250</v>
+        <v>126735</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>166530</v>
+        <v>165875</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>121942</v>
+        <v>121415</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>64173</v>
+        <v>65200</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63321</v>
+        <v>63161</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>94234</v>
+        <v>95377</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>87469</v>
+        <v>87658</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42886</v>
+        <v>42809</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>110163</v>
+        <v>112445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>125904</v>
+        <v>126178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>85932</v>
+        <v>87941</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58028</v>
+        <v>56911</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>168532</v>
+        <v>168272</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>211722</v>
+        <v>212090</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>165138</v>
+        <v>165456</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>94127</v>
+        <v>94008</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>132659</v>
+        <v>131203</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>111035</v>
+        <v>109962</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>127975</v>
+        <v>126294</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>97727</v>
+        <v>97292</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>193584</v>
+        <v>193811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>134258</v>
+        <v>135530</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>141195</v>
+        <v>139148</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>158511</v>
+        <v>157297</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>334491</v>
+        <v>335664</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>255659</v>
+        <v>257589</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>277413</v>
+        <v>278286</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>263246</v>
+        <v>265918</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>171443</v>
+        <v>173762</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>151990</v>
+        <v>149725</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>167324</v>
+        <v>167457</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>142367</v>
+        <v>144203</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>237611</v>
+        <v>238960</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>176519</v>
+        <v>179640</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>183994</v>
+        <v>182506</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>196446</v>
+        <v>196720</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>400525</v>
+        <v>395149</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>312189</v>
+        <v>316319</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>339501</v>
+        <v>337479</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>326246</v>
+        <v>326870</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41378</v>
+        <v>41684</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>43882</v>
+        <v>43749</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22210</v>
+        <v>21872</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31076</v>
+        <v>30262</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>56161</v>
+        <v>55217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>79529</v>
+        <v>80285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>54248</v>
+        <v>55332</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>63363</v>
+        <v>63057</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>105304</v>
+        <v>103848</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>132828</v>
+        <v>130701</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>82194</v>
+        <v>84051</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>98005</v>
+        <v>98391</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>69112</v>
+        <v>69273</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>72577</v>
+        <v>70386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43871</v>
+        <v>42598</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>54161</v>
+        <v>52940</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>85138</v>
+        <v>84135</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>115604</v>
+        <v>114625</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>83474</v>
+        <v>84271</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>89840</v>
+        <v>88093</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>144300</v>
+        <v>143323</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>176708</v>
+        <v>176371</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>117512</v>
+        <v>118868</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>132748</v>
+        <v>131613</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>96540</v>
+        <v>97257</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>161310</v>
+        <v>162971</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>168965</v>
+        <v>168406</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>77437</v>
+        <v>76801</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106840</v>
+        <v>107561</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>193525</v>
+        <v>190494</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>216261</v>
+        <v>215368</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>100620</v>
+        <v>99019</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>214721</v>
+        <v>213507</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>367382</v>
+        <v>364963</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>397545</v>
+        <v>397212</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>190371</v>
+        <v>188754</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>130703</v>
+        <v>130273</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>202159</v>
+        <v>202883</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>207562</v>
+        <v>207331</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>124342</v>
+        <v>126030</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>142872</v>
+        <v>141538</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>231986</v>
+        <v>232712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>255718</v>
+        <v>256632</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>139156</v>
+        <v>136219</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>265361</v>
+        <v>263202</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>426556</v>
+        <v>423392</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>453539</v>
+        <v>455974</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>250420</v>
+        <v>249322</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36480</v>
+        <v>36251</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>28104</v>
+        <v>27787</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8128</v>
+        <v>7726</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>47527</v>
+        <v>45859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>35504</v>
+        <v>35313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>9971</v>
+        <v>10489</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>89845</v>
+        <v>89380</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>71228</v>
+        <v>68349</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>20207</v>
+        <v>21137</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61709</v>
+        <v>60374</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>52188</v>
+        <v>51329</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5006</v>
+        <v>3997</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20356</v>
+        <v>20174</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>73395</v>
+        <v>72632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>59657</v>
+        <v>59192</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9160</v>
+        <v>9351</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20250</v>
+        <v>21520</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>125744</v>
+        <v>126558</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>104907</v>
+        <v>102516</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>10440</v>
+        <v>10367</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>36649</v>
+        <v>37679</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>37028</v>
+        <v>36647</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>44886</v>
+        <v>44988</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2922</v>
+        <v>2937</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3078</v>
+        <v>3516</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>46104</v>
+        <v>49386</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>79313</v>
+        <v>77873</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>26939</v>
+        <v>26223</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7685</v>
+        <v>8063</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>91168</v>
+        <v>91318</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>130555</v>
+        <v>131547</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>32112</v>
+        <v>32542</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>13797</v>
+        <v>13666</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62869</v>
+        <v>61968</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>72715</v>
+        <v>72594</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14896</v>
+        <v>15049</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>12691</v>
+        <v>12918</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>74980</v>
+        <v>74564</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>112095</v>
+        <v>109195</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>50994</v>
+        <v>49102</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20677</v>
+        <v>21272</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>128397</v>
+        <v>128230</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>172742</v>
+        <v>171277</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>57623</v>
+        <v>57118</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>29276</v>
+        <v>29015</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>73134</v>
+        <v>73712</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>108495</v>
+        <v>111305</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>98388</v>
+        <v>100898</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>170628</v>
+        <v>170611</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>93003</v>
+        <v>93098</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>167220</v>
+        <v>170655</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>135161</v>
+        <v>134745</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>248466</v>
+        <v>249637</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>177467</v>
+        <v>175891</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>293011</v>
+        <v>291761</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>247467</v>
+        <v>249690</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>433473</v>
+        <v>433861</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>109547</v>
+        <v>108929</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>153625</v>
+        <v>153448</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>141605</v>
+        <v>142315</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>224140</v>
+        <v>225585</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>133550</v>
+        <v>132170</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>216031</v>
+        <v>221110</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>181543</v>
+        <v>180558</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>300139</v>
+        <v>299461</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>232047</v>
+        <v>228323</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>361179</v>
+        <v>357146</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>306893</v>
+        <v>312345</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>502566</v>
+        <v>507527</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>185050</v>
+        <v>184611</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>171110</v>
+        <v>171310</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>37809</v>
+        <v>37610</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9122</v>
+        <v>8865</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>278388</v>
+        <v>279369</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>238152</v>
+        <v>236706</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>60363</v>
+        <v>59975</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>22880</v>
+        <v>22031</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>478430</v>
+        <v>476105</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>419168</v>
+        <v>421734</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>104637</v>
+        <v>105854</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>36207</v>
+        <v>36482</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>233659</v>
+        <v>233579</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>221176</v>
+        <v>221975</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>66219</v>
+        <v>65755</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>25137</v>
+        <v>26254</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>331578</v>
+        <v>334192</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>293274</v>
+        <v>291313</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>95590</v>
+        <v>94757</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>42043</v>
+        <v>42829</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>554704</v>
+        <v>552603</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>495119</v>
+        <v>496922</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>148041</v>
+        <v>148557</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>61136</v>
+        <v>60521</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>811779</v>
+        <v>819320</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>571287</v>
+        <v>570234</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>472693</v>
+        <v>469208</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1117477</v>
+        <v>1118463</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>761738</v>
+        <v>766613</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>704891</v>
+        <v>702785</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1965044</v>
+        <v>1964903</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1361935</v>
+        <v>1361163</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1209314</v>
+        <v>1210512</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>921071</v>
+        <v>920532</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>665469</v>
+        <v>662767</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>572748</v>
+        <v>568966</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1231754</v>
+        <v>1235012</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>862173</v>
+        <v>864745</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>794118</v>
+        <v>792189</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2115132</v>
+        <v>2119409</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1494991</v>
+        <v>1494849</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1337781</v>
+        <v>1341115</v>
       </c>
     </row>
     <row r="40">
